--- a/biology/Microbiologie/Legionella_adelaidensis/Legionella_adelaidensis.xlsx
+++ b/biology/Microbiologie/Legionella_adelaidensis/Legionella_adelaidensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Legionella adelaidensis est une des espèces du genre de bactéries Legionella isolée en Australie-Méridionale. Ce sont des bacilles à Gram négatif de la famille des Legionellaceae faisant partie de l'embranchement des Pseudomonadota. Elle a été isolée dans une Tour aéroréfrigérante.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Legionella adelaidensis est une bactérie décrite en 1991 sur la base d'une souche isolée en Australie[1]. Cette souche, devenue souche type a été isolée d'un prélèvement provenant d'une tour aéroréfrigérante d'un système d'air conditionné à Adélaïde (Australie) en Australie-Méridionale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Legionella adelaidensis est une bactérie décrite en 1991 sur la base d'une souche isolée en Australie. Cette souche, devenue souche type a été isolée d'un prélèvement provenant d'une tour aéroréfrigérante d'un système d'air conditionné à Adélaïde (Australie) en Australie-Méridionale.
 </t>
         </is>
       </c>
@@ -544,10 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie de cette espèce Legionella adelaidensis est la suivante : a.de.lai.den’sis N.L. masc./fem. adj. adelaidensis, appartenant à Adélaïde, la ville où a été isolée la souche type de cette espèce[2],[3]. Le nouveau nom a été validé également en 1991 par l'ICSP et publié dans la liste de validation no 39 des noms de bactéries[4].
-Phylogénie
-Les analyses d'hybridations ADN-ADN de la souche 1762-AUS-E avec 28 espèces déjà décrites avant sa publication ont montré que la souche ne présente pas plus de 31 %  d'hybridations avec celles-ci et constitue donc une espèce différente[2].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de cette espèce Legionella adelaidensis est la suivante : a.de.lai.den’sis N.L. masc./fem. adj. adelaidensis, appartenant à Adélaïde, la ville où a été isolée la souche type de cette espèce,. Le nouveau nom a été validé également en 1991 par l'ICSP et publié dans la liste de validation no 39 des noms de bactéries.
 </t>
         </is>
       </c>
@@ -573,19 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractéristiques
-Legionella adelaidensis est une bactérie aérobie à Gram négatif. C'est un bacille mobile avec un unique flagelle polaire[2]. Cette bactérie est capable de croître sur milieu BCYEα et nécessite des milieux supplémentés en L-cystéine pour sa culture. Ses tests biochimiques se révèlent positifs pour les activités gélatinase, catalase et négatifs pour les activités oxydase, uréase, hydrolyse de l'hippurate, β-lactamase et production d'acides à partir de D-Glucose[2].
-Pour les tests sérologiques, les antisérums préparés contre la souche type se révèlent négatifs avec les antigènes des autres Legionella déjà décrites en 1991[2].
-Le contenu en GC (Guanine-plus-cytosine) de cette espèce se situe à 40 %[2].
-Son profil d'acides gras comprend de acides gras iso-C14h, n-C20h, n-C14h pour les acides gras 3-Hydoxy, et des n-C16:1, n-C16:0, anteiso-C15:0 et des iso-C156:0 pour les non-hydroxy[2]. Son profil d'ubiquinones est surtout composé de quinones Q11 pour 64 % de sa composition puis de Q10 pour 25 %, Q12 (9 %) et enfin Q9 (1 %)[2].
-Contrairement à d'autres espèces de Legionella, L. adelaidensis n'autofluoresce pas[2].
-Souche type
-La souche type de l'espèce Legionella adelaidensis est la souche 1762-AUS-E qui porte les identifiants ATCC 49625, CCUG 31231, CCUG 31231 A, CIP 103645, DSM 19888 et NCTC 12735 dans différentes banques de cultures bactériennes[2],[3].
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les analyses d'hybridations ADN-ADN de la souche 1762-AUS-E avec 28 espèces déjà décrites avant sa publication ont montré que la souche ne présente pas plus de 31 %  d'hybridations avec celles-ci et constitue donc une espèce différente.
 </t>
         </is>
       </c>
@@ -611,12 +627,92 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Legionella adelaidensis est une bactérie aérobie à Gram négatif. C'est un bacille mobile avec un unique flagelle polaire. Cette bactérie est capable de croître sur milieu BCYEα et nécessite des milieux supplémentés en L-cystéine pour sa culture. Ses tests biochimiques se révèlent positifs pour les activités gélatinase, catalase et négatifs pour les activités oxydase, uréase, hydrolyse de l'hippurate, β-lactamase et production d'acides à partir de D-Glucose.
+Pour les tests sérologiques, les antisérums préparés contre la souche type se révèlent négatifs avec les antigènes des autres Legionella déjà décrites en 1991.
+Le contenu en GC (Guanine-plus-cytosine) de cette espèce se situe à 40 %.
+Son profil d'acides gras comprend de acides gras iso-C14h, n-C20h, n-C14h pour les acides gras 3-Hydoxy, et des n-C16:1, n-C16:0, anteiso-C15:0 et des iso-C156:0 pour les non-hydroxy. Son profil d'ubiquinones est surtout composé de quinones Q11 pour 64 % de sa composition puis de Q10 pour 25 %, Q12 (9 %) et enfin Q9 (1 %).
+Contrairement à d'autres espèces de Legionella, L. adelaidensis n'autofluoresce pas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Legionella_adelaidensis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Legionella_adelaidensis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Souche type</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La souche type de l'espèce Legionella adelaidensis est la souche 1762-AUS-E qui porte les identifiants ATCC 49625, CCUG 31231, CCUG 31231 A, CIP 103645, DSM 19888 et NCTC 12735 dans différentes banques de cultures bactériennes,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Legionella_adelaidensis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Legionella_adelaidensis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Legionella adelaidensis est une espèce de bactérie dont la souche type, 1762-AUS-E a été isolée d'un échantillon d'eau d'une tour aéroréfrigérante[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Legionella adelaidensis est une espèce de bactérie dont la souche type, 1762-AUS-E a été isolée d'un échantillon d'eau d'une tour aéroréfrigérante.
 </t>
         </is>
       </c>
